--- a/database/seeders/_seeder.xlsx
+++ b/database/seeders/_seeder.xlsx
@@ -5,15 +5,20 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cuong\source\repos\TeKy_DoAn\database\seeders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cuong\source\repos\DoAn_Final\database\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Users" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoc_Sinh" sheetId="2" r:id="rId2"/>
+    <sheet name="users" sheetId="1" r:id="rId1"/>
+    <sheet name="phu_huynh" sheetId="8" r:id="rId2"/>
+    <sheet name="hoc_sinh" sheetId="2" r:id="rId3"/>
+    <sheet name="giao_vien" sheetId="7" r:id="rId4"/>
+    <sheet name="level" sheetId="4" r:id="rId5"/>
+    <sheet name="loai_khoa_hoc" sheetId="5" r:id="rId6"/>
+    <sheet name="khoa_hoc" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
   <si>
     <t>anhdaidien</t>
   </si>
@@ -42,9 +47,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>default.png</t>
-  </si>
-  <si>
     <t>cuong1998pro</t>
   </si>
   <si>
@@ -72,17 +74,240 @@
     <t>hodem</t>
   </si>
   <si>
-    <t>pham</t>
+    <t>$2y$10$l4cAzWxFQei93wJEUm4KMuZGrxwxuPpO285RiLdf6Gm8Aaf7cwj5W</t>
+  </si>
+  <si>
+    <t>$2y$10$cMX0hcjDo8g3R0F.shZd3.5F9Y3F4e2n4feD2eMuth3NG7FhyWDrW</t>
+  </si>
+  <si>
+    <t>$2y$10$LkmpS6uCMm6Lg3V2q/6oRu4S1oXofMotTFLENgDg6qzYSd/cY9slq</t>
+  </si>
+  <si>
+    <t>$2y$10$KMjVDbnMwv28Rf6fFnfDluM7z01hX0tRxVgUMGh5fT6fVAzPqpram</t>
+  </si>
+  <si>
+    <t>asset/jpg/avatar-1.jpg</t>
+  </si>
+  <si>
+    <t>asset/jpg/avatar-2.jpg</t>
+  </si>
+  <si>
+    <t>asset/jpg/avatar-5.jpg</t>
+  </si>
+  <si>
+    <t>asset/jpg/avatar-4.jpg</t>
+  </si>
+  <si>
+    <t>cmnd</t>
+  </si>
+  <si>
+    <t>ten</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>sodienthoai</t>
+  </si>
+  <si>
+    <t>ngaysinh</t>
+  </si>
+  <si>
+    <t>gioitinh</t>
+  </si>
+  <si>
+    <t>diachi</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>asset/jpg/avatar-3.jpg</t>
+  </si>
+  <si>
+    <t>phuhuynh01</t>
+  </si>
+  <si>
+    <t>$2y$10$wKRif0mHhnAOGZt4Ux1Iq.yyfVFJla5CvmqEXl02XM4FMYj9CYPy6</t>
+  </si>
+  <si>
+    <t>hocsinh01</t>
+  </si>
+  <si>
+    <t>hocsinh02</t>
+  </si>
+  <si>
+    <t>23/5B đường Lê Lợi, Phường 6, thành phố Tuy Hòa, tỉnh Phú Yên</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>Khánh</t>
+  </si>
+  <si>
+    <t>Phạm Văn</t>
+  </si>
+  <si>
+    <t>tenkhoahoc</t>
+  </si>
+  <si>
+    <t>dotuoi</t>
+  </si>
+  <si>
+    <t>sisotoida</t>
+  </si>
+  <si>
+    <t>dieukienhoc</t>
+  </si>
+  <si>
+    <t>hocphi</t>
+  </si>
+  <si>
+    <t>loai_khoa_hoc_id</t>
+  </si>
+  <si>
+    <t>level_id</t>
+  </si>
+  <si>
+    <t>tenlevel</t>
+  </si>
+  <si>
+    <t>mota</t>
+  </si>
+  <si>
+    <t>Sơ cấp</t>
+  </si>
+  <si>
+    <t>Trung cấp</t>
+  </si>
+  <si>
+    <t>Khóa học dành cho các bé mới bắt đầu tiếp cận</t>
+  </si>
+  <si>
+    <t>Cao cấp</t>
+  </si>
+  <si>
+    <t>Khóa học dành cho các bé đã hoàn thành mức độ trung cấp</t>
+  </si>
+  <si>
+    <t>Khóa học dành cho các bé đã hoàn thành mức độ sơ cấp</t>
+  </si>
+  <si>
+    <t>tenloaikhoahoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lập trình &amp; Phát triển ứng dụng </t>
+  </si>
+  <si>
+    <t>Scratch Jr là ngôn ngữ lập trình kéo thả trực quan dành cho độ tuổi 4-5 để làm quen với tư duy lập trình, chủ yếu giúp phát triển sự sáng tạo, tư duy logic của trẻ em qua việc tạo ra các sản phẩm, câu chuyện và trò chơi của chính mình.</t>
+  </si>
+  <si>
+    <t>Robot &amp; Điện tử tự động</t>
+  </si>
+  <si>
+    <t>Khoá học này đưa học sinh tiến sâu hơn vào chủ đề Robotics, logics lập trình và thiết kế kiến trúc với Lego Education Wedo. Các em sẽ từng bước dùng các mảnh ghép Lego thực hành với ròng rọc, động cơ, các loại cảm ứng để tạo nên các robot là các nhân vật.</t>
+  </si>
+  <si>
+    <t>3D &amp; Truyền thông đa phương tiện</t>
+  </si>
+  <si>
+    <t>Khoá học dựng hình, vẽ và in 3D được thiết kế từ trình độ sơ cấp tới nâng cao cho học sinh độ tuổi 7-10. Đây là lựa chọn hoàn hảo cho những học sinh thích hoạt động sáng tạo và muốn tạo ra từ các mô hình thực tế, thông qua sử dụng phần mềm.</t>
+  </si>
+  <si>
+    <t>Khoá học Online</t>
+  </si>
+  <si>
+    <t>Học Online với giáo viên giàu kinh nghiệm, trên nền tảng công nghệ ưu việt, tương tác đa chiều, trải nghiệm thú vị, thuận tiện học tập.</t>
+  </si>
+  <si>
+    <t>MẦM NON CÔNG NGHỆ – LẬP TRÌNH VỚI SCRATCHJR</t>
+  </si>
+  <si>
+    <t>5-7 tuổi</t>
+  </si>
+  <si>
+    <t>Không</t>
+  </si>
+  <si>
+    <t>noidung</t>
+  </si>
+  <si>
+    <t>Ươm mầm phát triển tư duy logic và sáng tạo trong thời đại số từ 4 tuổi với ngôn ngữ Lập trình Scratch Jr, Robot Uaro, Công nghệ 3D Maker Empire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trong khóa học này, các bạn nhỏ được tiếp cận làm quen với những công nghệ mới nhất của thời đại 4.0, đã có thể tự thiết kế một trò chơi trên máy tính hay chế tạo, điều khiển một chú robot thông qua những công cụ vô cùng hấp dẫn:
+    Ngôn ngữ Scratch Jr là ngôn ngữ lập trình kéo thả trực quan, với thiết kế sinh động, dễ dàng sử dụng và ghi nhớ. Thông qua việc thiết kế và lập trình các nhân vật phim hoạt hình vui nhộn, tạo ra các trò chơi hấp dẫn các bạn nhỏ sẽ bước đầu tiếp cận với khái niệm lập trình, rèn luyện tư duy logic, kỹ năng thiết kế và tư duy giải quyết vấn đề.
+    </t>
+  </si>
+  <si>
+    <t>BÉ LÀM GAME – CẤP 1</t>
+  </si>
+  <si>
+    <t>7 - 10 tuổi</t>
+  </si>
+  <si>
+    <t>Xây dựng đam mê, tạo nền tảng kiến thức Công nghệ; Sử dụng giáo trình xuất sắc tại Mỹ với 50 triệu học sinh &amp; 60,000 trường học trên toàn cầu</t>
+  </si>
+  <si>
+    <t>Be làm Game giúp học sinh tiếp cận, làm quen và phát triển tư duy - khả năng lập trình thông qua chuỗi các môn học - các công cụ coding vô cùng thú vị:
+Lập trình Game 2D với Scratch: Đây là ngôn ngữ lập trình trẻ em phổ biến nhất thế giới, phát triển bởi học viện MIT, Mỹ. Trẻ em tại nhiều quốc gia bắt đầu học lập trình từ 5 tuổi. Công cụ giúp học sinh sáng tạo và phát triển ý tưởng, tăng cường tư duy logic và tiếp cận công nghệ - lập trình một cách tốt nhất. Ngoài ra, học sinh còn được thực hành lập trình trên Robot Truetrue, sản phẩm của Tập đoàn Giáo dục số 1 Hàn Quốc - Sigong Media, phân phối độc quyền bởi Teky.</t>
+  </si>
+  <si>
+    <t>SIÊU NHÂN LẬP TRÌNH WEB – CẤP 2 &amp; CẤP 3</t>
+  </si>
+  <si>
+    <t>12-18 tuổi</t>
+  </si>
+  <si>
+    <t>Phát triển tư duy ứng dụng, sáng tạo cá tính và nuôi dưỡng tinh thần doanh nhân công nghệ trong thời đại 4.0; Theo chuẩn Kiến thức Khoa học máy tính CSTA cho K12 của Mỹ</t>
+  </si>
+  <si>
+    <t>Học sinh sẽ tiếp cận với hoạt động phát triển sản phẩm và ứng dụng công nghệ vào thực tế; ngoài ra học sinh còn được mở rộng các kiến thức liên quan tới khoa học máy tính, bảo mật và hack vốn đang ngày càng trở nên quan trọng hơn trong thế giới công nghệ.
+Python là ngôn ngữ lập trình hướng đối tượng, cấp cao, mạnh mẽ, được sử dụng bởi các công ty công nghệ khổng lồ như Google, Dropbox, Instagram, Quora... nhưng lại vô cùng dễ học. Với cú pháp rất đơn giản, rõ ràng; nó dễ đọc và viết hơn rất nhiều khi so sánh với những ngôn ngữ lập trình khác như C++, Java, C#. Python làm cho việc lập trình trở nên thú vị, cho phép bạn tập trung vào những giải pháp chứ không phải cú pháp. Python đang là xu hướng ngôn ngữ lập trình hàng đầu cho những người mới là</t>
+  </si>
+  <si>
+    <t>Không cần kiến thức lập trình</t>
+  </si>
+  <si>
+    <t>SIÊU NHÂN LẬP TRÌNH APP – CẤP 2 &amp; CẤP 3</t>
+  </si>
+  <si>
+    <t>Học sinh sẽ tiếp cận với hoạt động phát triển sản phẩm và ứng dụng công nghệ vào thực tế; ngoài ra học sinh còn được mở rộng các kiến thức liên quan tới khoa học máy tính, bảo mật và hack vốn đang ngày càng trở nên quan trọng hơn trong thế giới công nghệ.
+App Inventor là một môi trường phát triển tích hợp (IDE) ban đầu được cung cấp bởi Google và hiện được duy trì bởi Viện Công nghệ Massachusetts. Để tạo ra một Ứng dụng di động (Mobile App), bạn không chỉ cần ý tưởng, mà còn cần kiến thức lập trình căn bản cũng như kiến thức sử dụng môi trường phát triển tích hợp để viết lệnh (write code), biên dịch (compile), đóng gói (package), chạy thử (test) hoặc tạo ứng dụng thật (build). Có nhiều môi trường phát triển tích hợp (Integrated Development Envi</t>
+  </si>
+  <si>
+    <t>SIÊU NHÂN LẬP TRÌNH GAME 3D &amp; VR VỚI UNITY – CẤP 2 &amp; CẤP 3</t>
+  </si>
+  <si>
+    <t>11 - 15 tuổi</t>
+  </si>
+  <si>
+    <t>Giáo trình khoá học chuẩn Mỹ, giảng viên tận tình, nội dung học tập chuyên sâu dài hạn</t>
+  </si>
+  <si>
+    <t>Khóa học lập trình Game 3D với Unity giúp học sinh khai phá các ý tưởng kịch bản, trò chơi, xây dựng đồ họa, nhân vật, môi trường trong thế giới 2D, 3D và từ đó phân tích, thiết kế, xây dựng và phát triển các game trên đa nền tảng. Ngoài ra học sinh sẽ tìm hiểu các kiến thức lập trình C# căn bản cũng như kiến thức sử dụng môi trường tích hợp để viết lệnh (write code), biên dịch (compile), đóng gói (package), chạy thử (test) hoặc tạo ứng dụng thật (build).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,13 +330,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -390,104 +628,320 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>31444322</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>337507167</v>
+      </c>
+      <c r="F2" s="2">
+        <v>35806</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="55.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>123456</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>123456</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>123456</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>123456</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -495,27 +949,268 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="37.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="55" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="19.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="1">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="1">
+        <v>80000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="1">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E8" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/database/seeders/_seeder.xlsx
+++ b/database/seeders/_seeder.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cuong\source\repos\TeKy_DoAn\database\seeders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\DoAn\database\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01E77FC-B45F-4341-B0B5-9BDB1C434110}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoc_Sinh" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>anhdaidien</t>
   </si>
@@ -67,23 +67,17 @@
   </si>
   <si>
     <t>hoatdong</t>
-  </si>
-  <si>
-    <t>hodem</t>
-  </si>
-  <si>
-    <t>pham</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -389,23 +383,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,7 +416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -439,7 +433,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -456,7 +450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -473,7 +467,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -488,31 +482,6 @@
       </c>
       <c r="E5" t="s">
         <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/database/seeders/_seeder.xlsx
+++ b/database/seeders/_seeder.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\DoAn_Final\database\seeders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\DoAn\database\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AFA560-DDC3-4638-A942-5389A7F87AB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>anhdaidien</t>
   </si>
@@ -296,17 +297,32 @@
   </si>
   <si>
     <t>0337507167</t>
+  </si>
+  <si>
+    <t>phu_huynh_id</t>
+  </si>
+  <si>
+    <t>Trần Hoàng Bảo</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>2005/1/11</t>
+  </si>
+  <si>
+    <t>chinhthuc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -314,7 +330,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -633,24 +649,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="28.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -667,7 +683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -684,7 +700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -701,7 +717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -718,7 +734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -735,7 +751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -752,7 +768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
@@ -769,7 +785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
@@ -793,27 +809,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -842,7 +858,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>31444322</v>
       </c>
@@ -873,52 +889,108 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="55.88671875" customWidth="1"/>
+    <col min="2" max="2" width="55.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -926,7 +998,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -934,7 +1006,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -942,7 +1014,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -956,19 +1028,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="37.6640625" customWidth="1"/>
+    <col min="1" max="3" width="37.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -976,7 +1048,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -984,7 +1056,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -992,7 +1064,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -1000,7 +1072,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -1014,28 +1086,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="55" style="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="1"/>
-    <col min="8" max="8" width="19.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1"/>
+    <col min="8" max="8" width="19.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="10" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1064,7 +1136,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -1093,7 +1165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
@@ -1122,7 +1194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>74</v>
       </c>
@@ -1151,7 +1223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>79</v>
       </c>
@@ -1180,7 +1252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="114" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>81</v>
       </c>
@@ -1209,10 +1281,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E8" s="4"/>
     </row>
   </sheetData>

--- a/database/seeders/_seeder.xlsx
+++ b/database/seeders/_seeder.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="125">
   <si>
     <t>anhdaidien</t>
   </si>
@@ -298,6 +298,117 @@
   </si>
   <si>
     <t>sodienthoai</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn A</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn B</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn C</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn D</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn E</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn F</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn G</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn H</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Y</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn K</t>
+  </si>
+  <si>
+    <t>Hoàng bảo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Văn </t>
+  </si>
+  <si>
+    <t>Nguyễn Văn</t>
+  </si>
+  <si>
+    <t>Hoàng Văn</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị</t>
+  </si>
+  <si>
+    <t>Trần Thị</t>
+  </si>
+  <si>
+    <t>Hoàng Thị</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức</t>
+  </si>
+  <si>
+    <t>Lê Đức</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>J</t>
   </si>
 </sst>
 </file>
@@ -796,10 +907,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -879,9 +990,768 @@
         <v>86</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3">
+        <v>31444322</v>
+      </c>
+      <c r="G3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3">
+        <v>31967938</v>
+      </c>
+      <c r="J3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4">
+        <v>31444322</v>
+      </c>
+      <c r="G4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4">
+        <v>31967938</v>
+      </c>
+      <c r="J4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5">
+        <v>31444322</v>
+      </c>
+      <c r="G5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5">
+        <v>31967938</v>
+      </c>
+      <c r="J5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6">
+        <v>31444322</v>
+      </c>
+      <c r="G6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6">
+        <v>31967938</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7">
+        <v>31444322</v>
+      </c>
+      <c r="G7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7">
+        <v>31967938</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8">
+        <v>31444322</v>
+      </c>
+      <c r="G8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8">
+        <v>31967938</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9">
+        <v>31444322</v>
+      </c>
+      <c r="G9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9">
+        <v>31967938</v>
+      </c>
+      <c r="J9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10">
+        <v>31444322</v>
+      </c>
+      <c r="G10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10">
+        <v>31967938</v>
+      </c>
+      <c r="J10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11">
+        <v>31444322</v>
+      </c>
+      <c r="G11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11">
+        <v>31967938</v>
+      </c>
+      <c r="J11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12">
+        <v>31444322</v>
+      </c>
+      <c r="G12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12">
+        <v>31967938</v>
+      </c>
+      <c r="J12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13">
+        <v>31444322</v>
+      </c>
+      <c r="G13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13">
+        <v>31967938</v>
+      </c>
+      <c r="J13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14">
+        <v>31444322</v>
+      </c>
+      <c r="G14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14">
+        <v>31967938</v>
+      </c>
+      <c r="J14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15">
+        <v>31444322</v>
+      </c>
+      <c r="G15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15">
+        <v>31967938</v>
+      </c>
+      <c r="J15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16">
+        <v>31444322</v>
+      </c>
+      <c r="G16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16">
+        <v>31967938</v>
+      </c>
+      <c r="J16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17">
+        <v>31444322</v>
+      </c>
+      <c r="G17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17">
+        <v>31967938</v>
+      </c>
+      <c r="J17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18">
+        <v>31444322</v>
+      </c>
+      <c r="G18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18">
+        <v>31967938</v>
+      </c>
+      <c r="J18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19">
+        <v>31444322</v>
+      </c>
+      <c r="G19" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19">
+        <v>31967938</v>
+      </c>
+      <c r="J19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20">
+        <v>31444322</v>
+      </c>
+      <c r="G20" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20">
+        <v>31967938</v>
+      </c>
+      <c r="J20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21">
+        <v>31444322</v>
+      </c>
+      <c r="G21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21">
+        <v>31967938</v>
+      </c>
+      <c r="J21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22">
+        <v>31444322</v>
+      </c>
+      <c r="G22" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22">
+        <v>31967938</v>
+      </c>
+      <c r="J22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23">
+        <v>31444322</v>
+      </c>
+      <c r="G23" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23">
+        <v>31967938</v>
+      </c>
+      <c r="J23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24">
+        <v>31444322</v>
+      </c>
+      <c r="G24" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24">
+        <v>31967938</v>
+      </c>
+      <c r="J24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25">
+        <v>31444322</v>
+      </c>
+      <c r="G25" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25">
+        <v>31967938</v>
+      </c>
+      <c r="J25" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H4" r:id="rId3"/>
+    <hyperlink ref="H5" r:id="rId4"/>
+    <hyperlink ref="H6" r:id="rId5"/>
+    <hyperlink ref="H7" r:id="rId6"/>
+    <hyperlink ref="H8" r:id="rId7"/>
+    <hyperlink ref="H9" r:id="rId8"/>
+    <hyperlink ref="H10" r:id="rId9"/>
+    <hyperlink ref="H11" r:id="rId10"/>
+    <hyperlink ref="H12" r:id="rId11"/>
+    <hyperlink ref="H13" r:id="rId12"/>
+    <hyperlink ref="H14" r:id="rId13"/>
+    <hyperlink ref="H15" r:id="rId14"/>
+    <hyperlink ref="H16" r:id="rId15"/>
+    <hyperlink ref="H17" r:id="rId16"/>
+    <hyperlink ref="H18" r:id="rId17"/>
+    <hyperlink ref="H19" r:id="rId18"/>
+    <hyperlink ref="H20" r:id="rId19"/>
+    <hyperlink ref="H21" r:id="rId20"/>
+    <hyperlink ref="H22" r:id="rId21"/>
+    <hyperlink ref="H23" r:id="rId22"/>
+    <hyperlink ref="H24" r:id="rId23"/>
+    <hyperlink ref="H25" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/seeders/_seeder.xlsx
+++ b/database/seeders/_seeder.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,9 @@
     <sheet name="level" sheetId="4" r:id="rId4"/>
     <sheet name="loai_khoa_hoc" sheetId="5" r:id="rId5"/>
     <sheet name="khoa_hoc" sheetId="3" r:id="rId6"/>
-    <sheet name="lop_hoc" sheetId="8" r:id="rId7"/>
+    <sheet name="ca_hoc" sheetId="9" r:id="rId7"/>
+    <sheet name="lop_hoc" sheetId="8" r:id="rId8"/>
+    <sheet name="thoi_khoa_bieu" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="277">
   <si>
     <t>anhdaidien</t>
   </si>
@@ -66,9 +68,6 @@
   </si>
   <si>
     <t>phuhuynh</t>
-  </si>
-  <si>
-    <t>hoatdong</t>
   </si>
   <si>
     <t>hodem</t>
@@ -274,9 +273,6 @@
     <t>Khóa học lập trình Game 3D với Unity giúp học sinh khai phá các ý tưởng kịch bản, trò chơi, xây dựng đồ họa, nhân vật, môi trường trong thế giới 2D, 3D và từ đó phân tích, thiết kế, xây dựng và phát triển các game trên đa nền tảng. Ngoài ra học sinh sẽ tìm hiểu các kiến thức lập trình C# căn bản cũng như kiến thức sử dụng môi trường tích hợp để viết lệnh (write code), biên dịch (compile), đóng gói (package), chạy thử (test) hoặc tạo ứng dụng thật (build).</t>
   </si>
   <si>
-    <t>chinhthuc</t>
-  </si>
-  <si>
     <t>hotenchame</t>
   </si>
   <si>
@@ -493,9 +489,6 @@
     <t>0902489120</t>
   </si>
   <si>
-    <t>hocthu</t>
-  </si>
-  <si>
     <t xml:space="preserve">Đặng Kim </t>
   </si>
   <si>
@@ -713,9 +706,6 @@
   </si>
   <si>
     <t>tenlop</t>
-  </si>
-  <si>
-    <t>danghoatdong</t>
   </si>
   <si>
     <t>ghichu</t>
@@ -769,17 +759,136 @@
     <t>HP-TGVV-0001</t>
   </si>
   <si>
-    <t>daketthuc</t>
+    <t>ngaybatdau</t>
+  </si>
+  <si>
+    <t>ngayketthuc</t>
+  </si>
+  <si>
+    <t>2020/01/09</t>
+  </si>
+  <si>
+    <t>2020/04/10</t>
+  </si>
+  <si>
+    <t>2020/03/20</t>
+  </si>
+  <si>
+    <t>2020/05/12</t>
+  </si>
+  <si>
+    <t>Đã kết thúc</t>
+  </si>
+  <si>
+    <t>Đang hoạt động</t>
+  </si>
+  <si>
+    <t>Chính thức</t>
+  </si>
+  <si>
+    <t>tinhtrang</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>giaovien01</t>
+  </si>
+  <si>
+    <t>giaovien02</t>
+  </si>
+  <si>
+    <t>giaovien03</t>
+  </si>
+  <si>
+    <t>$2y$10$wKRif0mHhnAOGZt4Ux1Iq.yyfVFJla5CvmqEXl02XM4FMYj9CYPy7</t>
+  </si>
+  <si>
+    <t>$2y$10$wKRif0mHhnAOGZt4Ux1Iq.yyfVFJla5CvmqEXl02XM4FMYj9CYPy8</t>
+  </si>
+  <si>
+    <t>$2y$10$wKRif0mHhnAOGZt4Ux1Iq.yyfVFJla5CvmqEXl02XM4FMYj9CYPy9</t>
+  </si>
+  <si>
+    <t>Hoạt động</t>
+  </si>
+  <si>
+    <t>Nguyễn Quỳnh</t>
+  </si>
+  <si>
+    <t>Bùi Lê Hoài</t>
+  </si>
+  <si>
+    <t>Phạm Hồng Bảo</t>
+  </si>
+  <si>
+    <t>Châu</t>
+  </si>
+  <si>
+    <t>1998/01/02</t>
+  </si>
+  <si>
+    <t>1998/01/03</t>
+  </si>
+  <si>
+    <t>1998/01/04</t>
+  </si>
+  <si>
+    <t>031985909</t>
+  </si>
+  <si>
+    <t>031985910</t>
+  </si>
+  <si>
+    <t>031985911</t>
+  </si>
+  <si>
+    <t>0323232332</t>
+  </si>
+  <si>
+    <t>0323232333</t>
+  </si>
+  <si>
+    <t>0323232334</t>
+  </si>
+  <si>
+    <t>cuong1998pro@gmail.com</t>
+  </si>
+  <si>
+    <t>Cơ hữu</t>
+  </si>
+  <si>
+    <t>Cộng tác</t>
+  </si>
+  <si>
+    <t>giao_vien_id</t>
+  </si>
+  <si>
+    <t>thoigianbatdau</t>
+  </si>
+  <si>
+    <t>thoigianketthuc</t>
+  </si>
+  <si>
+    <t>lop_hoc_id</t>
+  </si>
+  <si>
+    <t>ca_hoc_id</t>
+  </si>
+  <si>
+    <t>thu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="168" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -867,6 +976,17 @@
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -876,12 +996,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -905,7 +1040,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -961,15 +1096,34 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Bình thường 2" xfId="6"/>
@@ -1267,10 +1421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="A8:B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1302,121 +1456,172 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -1430,7 +1635,7 @@
   <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1450,802 +1655,802 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75">
       <c r="A2" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="I2" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="I3" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="31.5">
       <c r="A4" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="I5" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75">
       <c r="A6" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="I6" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75">
       <c r="A7" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="I7" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75">
       <c r="A8" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="I8" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75">
       <c r="A9" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="I9" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75">
       <c r="A10" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="I10" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75">
       <c r="A11" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="I11" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75">
       <c r="A12" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="I12" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="31.5">
       <c r="A13" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="I13" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75">
       <c r="A14" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="I14" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75">
       <c r="A15" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="I15" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75">
       <c r="A16" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="I16" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="I17" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75">
       <c r="A18" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="I18" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75">
       <c r="A19" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="I19" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="31.5">
       <c r="A20" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="H20" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="I20" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="31.5">
       <c r="A21" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="I21" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D22" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="I22" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75">
       <c r="A23" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D23" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="I23" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D24" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="I24" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="31.5">
       <c r="A25" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="I25" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75">
@@ -2751,13 +2956,179 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="17" style="26" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="23"/>
+    <col min="6" max="6" width="14.28515625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="23" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="23" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75">
+      <c r="A2" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="J2" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75">
+      <c r="A3" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="J3" s="23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75">
+      <c r="A4" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="J4" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="27"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="27"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="27"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="27"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="27"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="27"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3:G4" r:id="rId2" display="cuong1998pro@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -2766,7 +3137,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2776,34 +3147,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
         <v>46</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2816,7 +3187,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2826,42 +3197,42 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
         <v>50</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
         <v>52</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
         <v>54</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
         <v>56</v>
-      </c>
-      <c r="B5" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2873,7 +3244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
@@ -2893,51 +3264,51 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="165">
       <c r="A2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="C2" s="1">
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" s="1">
         <v>80000</v>
@@ -2951,22 +3322,22 @@
     </row>
     <row r="3" spans="1:9" ht="180">
       <c r="A3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="C3" s="1">
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" s="1">
         <v>1000000</v>
@@ -2980,22 +3351,22 @@
     </row>
     <row r="4" spans="1:9" ht="210">
       <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="C4" s="1">
         <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G4" s="1">
         <v>1500000</v>
@@ -3009,22 +3380,22 @@
     </row>
     <row r="5" spans="1:9" ht="210">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1">
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="1">
         <v>1500000</v>
@@ -3038,22 +3409,22 @@
     </row>
     <row r="6" spans="1:9" ht="120">
       <c r="A6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="C6" s="1">
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="1">
         <v>1500000</v>
@@ -3067,22 +3438,22 @@
     </row>
     <row r="7" spans="1:9" ht="180">
       <c r="A7" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C7" s="1">
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" s="1">
         <v>1500000</v>
@@ -3096,22 +3467,22 @@
     </row>
     <row r="8" spans="1:9" ht="409.5">
       <c r="A8" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="1">
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" s="1">
         <v>2000000</v>
@@ -3125,22 +3496,22 @@
     </row>
     <row r="9" spans="1:9" ht="210">
       <c r="A9" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C9" s="1">
         <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="1">
         <v>2000000</v>
@@ -3160,52 +3531,210 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s">
-        <v>228</v>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="30">
+        <v>0.3125</v>
+      </c>
+      <c r="B2" s="31">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="31">
+        <v>0.375</v>
+      </c>
+      <c r="B3" s="31">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="30">
+        <v>0.5625</v>
+      </c>
+      <c r="B4" s="30">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="32">
+        <v>0.625</v>
+      </c>
+      <c r="B5" s="32">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="32">
+        <v>0.6875</v>
+      </c>
+      <c r="B6" s="32">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="32">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="B7" s="32">
+        <v>0.89583333333333337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="5" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" t="s">
+        <v>271</v>
       </c>
       <c r="C1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="G1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>239</v>
       </c>
+      <c r="E2" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="F2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="F3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>240</v>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>241</v>
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/database/seeders/_seeder.xlsx
+++ b/database/seeders/_seeder.xlsx
@@ -5,20 +5,22 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cuong\Desktop\code\DoAn_Final\database\seeders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\DoAn_Final\database\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
     <sheet name="hoc_sinh" sheetId="2" r:id="rId2"/>
     <sheet name="giao_vien" sheetId="7" r:id="rId3"/>
-    <sheet name="level" sheetId="4" r:id="rId4"/>
-    <sheet name="loai_khoa_hoc" sheetId="5" r:id="rId5"/>
-    <sheet name="khoa_hoc" sheetId="3" r:id="rId6"/>
-    <sheet name="lop_hoc" sheetId="8" r:id="rId7"/>
+    <sheet name="chuc_vu" sheetId="9" r:id="rId4"/>
+    <sheet name="nhan_vien" sheetId="10" r:id="rId5"/>
+    <sheet name="level" sheetId="4" r:id="rId6"/>
+    <sheet name="loai_khoa_hoc" sheetId="5" r:id="rId7"/>
+    <sheet name="khoa_hoc" sheetId="3" r:id="rId8"/>
+    <sheet name="lop_hoc" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="261">
   <si>
     <t>anhdaidien</t>
   </si>
@@ -771,13 +773,70 @@
   <si>
     <t>daketthuc</t>
   </si>
+  <si>
+    <t>hesoluong</t>
+  </si>
+  <si>
+    <t>Nhân viên</t>
+  </si>
+  <si>
+    <t>Nhân viên vận hành</t>
+  </si>
+  <si>
+    <t>Nhân viên vận hành hệ thống</t>
+  </si>
+  <si>
+    <t>tinhtrang</t>
+  </si>
+  <si>
+    <t>chuc_vu_id</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn</t>
+  </si>
+  <si>
+    <t>Hoan</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>Hoạt động</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Hiếu</t>
+  </si>
+  <si>
+    <t>Phạm thị</t>
+  </si>
+  <si>
+    <t>1998/12/25</t>
+  </si>
+  <si>
+    <t>1998/12/12</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị</t>
+  </si>
+  <si>
+    <t>1980/12/25</t>
+  </si>
+  <si>
+    <t>1988/12/12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -905,7 +964,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -961,15 +1020,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Bình thường 2" xfId="6"/>
@@ -1273,14 +1334,14 @@
       <selection activeCell="B8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="28.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1429,23 +1490,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="21" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="7" max="7" width="22.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1480,7 +1541,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75">
+    <row r="2" spans="1:10" ht="15.6">
       <c r="A2" s="9" t="s">
         <v>153</v>
       </c>
@@ -1512,7 +1573,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75">
+    <row r="3" spans="1:10" ht="15.6">
       <c r="A3" s="9" t="s">
         <v>154</v>
       </c>
@@ -1544,7 +1605,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="31.5">
+    <row r="4" spans="1:10" ht="31.2">
       <c r="A4" s="9" t="s">
         <v>155</v>
       </c>
@@ -1576,7 +1637,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75">
+    <row r="5" spans="1:10" ht="15.6">
       <c r="A5" s="9" t="s">
         <v>156</v>
       </c>
@@ -1608,7 +1669,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75">
+    <row r="6" spans="1:10" ht="15.6">
       <c r="A6" s="9" t="s">
         <v>157</v>
       </c>
@@ -1640,7 +1701,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75">
+    <row r="7" spans="1:10" ht="15.6">
       <c r="A7" s="9" t="s">
         <v>158</v>
       </c>
@@ -1672,7 +1733,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75">
+    <row r="8" spans="1:10" ht="15.6">
       <c r="A8" s="9" t="s">
         <v>159</v>
       </c>
@@ -1704,7 +1765,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75">
+    <row r="9" spans="1:10" ht="15.6">
       <c r="A9" s="9" t="s">
         <v>160</v>
       </c>
@@ -1736,7 +1797,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75">
+    <row r="10" spans="1:10" ht="15.6">
       <c r="A10" s="9" t="s">
         <v>161</v>
       </c>
@@ -1768,7 +1829,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75">
+    <row r="11" spans="1:10" ht="15.6">
       <c r="A11" s="9" t="s">
         <v>162</v>
       </c>
@@ -1800,7 +1861,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75">
+    <row r="12" spans="1:10" ht="15.6">
       <c r="A12" s="9" t="s">
         <v>163</v>
       </c>
@@ -1832,7 +1893,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="31.5">
+    <row r="13" spans="1:10" ht="15.6">
       <c r="A13" s="9" t="s">
         <v>164</v>
       </c>
@@ -1864,7 +1925,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75">
+    <row r="14" spans="1:10" ht="15.6">
       <c r="A14" s="9" t="s">
         <v>165</v>
       </c>
@@ -1896,7 +1957,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75">
+    <row r="15" spans="1:10" ht="15.6">
       <c r="A15" s="9" t="s">
         <v>166</v>
       </c>
@@ -1928,7 +1989,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75">
+    <row r="16" spans="1:10" ht="15.6">
       <c r="A16" s="9" t="s">
         <v>167</v>
       </c>
@@ -1960,7 +2021,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75">
+    <row r="17" spans="1:10" ht="15.6">
       <c r="A17" s="9" t="s">
         <v>168</v>
       </c>
@@ -1992,7 +2053,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75">
+    <row r="18" spans="1:10" ht="15.6">
       <c r="A18" s="9" t="s">
         <v>169</v>
       </c>
@@ -2024,7 +2085,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75">
+    <row r="19" spans="1:10" ht="15.6">
       <c r="A19" s="9" t="s">
         <v>170</v>
       </c>
@@ -2056,7 +2117,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="31.5">
+    <row r="20" spans="1:10" ht="31.2">
       <c r="A20" s="9" t="s">
         <v>171</v>
       </c>
@@ -2088,7 +2149,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="31.5">
+    <row r="21" spans="1:10" ht="31.2">
       <c r="A21" s="9" t="s">
         <v>172</v>
       </c>
@@ -2120,7 +2181,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75">
+    <row r="22" spans="1:10" ht="15.6">
       <c r="A22" s="9" t="s">
         <v>173</v>
       </c>
@@ -2152,7 +2213,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75">
+    <row r="23" spans="1:10" ht="15.6">
       <c r="A23" s="9" t="s">
         <v>174</v>
       </c>
@@ -2184,7 +2245,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75">
+    <row r="24" spans="1:10" ht="15.6">
       <c r="A24" s="9" t="s">
         <v>175</v>
       </c>
@@ -2216,7 +2277,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="31.5">
+    <row r="25" spans="1:10" ht="31.2">
       <c r="A25" s="9" t="s">
         <v>176</v>
       </c>
@@ -2248,7 +2309,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75">
+    <row r="26" spans="1:10" ht="15.6">
       <c r="A26" s="12"/>
       <c r="D26" s="5"/>
       <c r="E26" s="13"/>
@@ -2256,7 +2317,7 @@
       <c r="G26" s="18"/>
       <c r="I26" s="16"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75">
+    <row r="27" spans="1:10" ht="15.6">
       <c r="A27" s="12"/>
       <c r="D27" s="5"/>
       <c r="E27" s="13"/>
@@ -2264,7 +2325,7 @@
       <c r="G27" s="18"/>
       <c r="I27" s="16"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75">
+    <row r="28" spans="1:10" ht="15.6">
       <c r="A28" s="12"/>
       <c r="D28" s="5"/>
       <c r="E28" s="13"/>
@@ -2272,7 +2333,7 @@
       <c r="G28" s="18"/>
       <c r="I28" s="16"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75">
+    <row r="29" spans="1:10" ht="15.6">
       <c r="A29" s="12"/>
       <c r="D29" s="5"/>
       <c r="E29" s="13"/>
@@ -2280,7 +2341,7 @@
       <c r="G29" s="18"/>
       <c r="I29" s="16"/>
     </row>
-    <row r="30" spans="1:10" ht="15.75">
+    <row r="30" spans="1:10" ht="15.6">
       <c r="A30" s="12"/>
       <c r="D30" s="5"/>
       <c r="E30" s="13"/>
@@ -2288,7 +2349,7 @@
       <c r="G30" s="18"/>
       <c r="I30" s="16"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75">
+    <row r="31" spans="1:10" ht="15.6">
       <c r="A31" s="12"/>
       <c r="D31" s="5"/>
       <c r="E31" s="13"/>
@@ -2296,7 +2357,7 @@
       <c r="G31" s="18"/>
       <c r="I31" s="16"/>
     </row>
-    <row r="32" spans="1:10" ht="15.75">
+    <row r="32" spans="1:10" ht="15.6">
       <c r="A32" s="12"/>
       <c r="D32" s="5"/>
       <c r="E32" s="13"/>
@@ -2304,7 +2365,7 @@
       <c r="G32" s="18"/>
       <c r="I32" s="16"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75">
+    <row r="33" spans="1:9" ht="15.6">
       <c r="A33" s="12"/>
       <c r="D33" s="5"/>
       <c r="E33" s="13"/>
@@ -2312,7 +2373,7 @@
       <c r="G33" s="18"/>
       <c r="I33" s="16"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75">
+    <row r="34" spans="1:9" ht="15.6">
       <c r="A34" s="12"/>
       <c r="D34" s="5"/>
       <c r="E34" s="13"/>
@@ -2320,7 +2381,7 @@
       <c r="G34" s="18"/>
       <c r="I34" s="16"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75">
+    <row r="35" spans="1:9" ht="15.6">
       <c r="A35" s="12"/>
       <c r="D35" s="5"/>
       <c r="E35" s="13"/>
@@ -2328,7 +2389,7 @@
       <c r="G35" s="18"/>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75">
+    <row r="36" spans="1:9" ht="15.6">
       <c r="A36" s="12"/>
       <c r="D36" s="5"/>
       <c r="E36" s="13"/>
@@ -2336,7 +2397,7 @@
       <c r="G36" s="18"/>
       <c r="I36" s="16"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75">
+    <row r="37" spans="1:9" ht="15.6">
       <c r="A37" s="12"/>
       <c r="D37" s="5"/>
       <c r="E37" s="13"/>
@@ -2344,7 +2405,7 @@
       <c r="G37" s="18"/>
       <c r="I37" s="16"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75">
+    <row r="38" spans="1:9" ht="15.6">
       <c r="A38" s="12"/>
       <c r="D38" s="5"/>
       <c r="E38" s="13"/>
@@ -2352,7 +2413,7 @@
       <c r="G38" s="18"/>
       <c r="I38" s="16"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75">
+    <row r="39" spans="1:9" ht="15.6">
       <c r="A39" s="12"/>
       <c r="D39" s="5"/>
       <c r="E39" s="13"/>
@@ -2360,7 +2421,7 @@
       <c r="G39" s="18"/>
       <c r="I39" s="16"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75">
+    <row r="40" spans="1:9" ht="15.6">
       <c r="A40" s="12"/>
       <c r="D40" s="5"/>
       <c r="E40" s="13"/>
@@ -2368,7 +2429,7 @@
       <c r="G40" s="18"/>
       <c r="I40" s="16"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75">
+    <row r="41" spans="1:9" ht="15.6">
       <c r="A41" s="12"/>
       <c r="D41" s="5"/>
       <c r="E41" s="13"/>
@@ -2376,344 +2437,344 @@
       <c r="G41" s="18"/>
       <c r="I41" s="16"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75">
+    <row r="42" spans="1:9" ht="15.6">
       <c r="A42" s="12"/>
       <c r="D42" s="5"/>
       <c r="E42" s="13"/>
       <c r="F42" s="4"/>
       <c r="I42" s="16"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75">
+    <row r="43" spans="1:9" ht="15.6">
       <c r="A43" s="12"/>
       <c r="D43" s="5"/>
       <c r="E43" s="13"/>
       <c r="F43" s="4"/>
       <c r="I43" s="16"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75">
+    <row r="44" spans="1:9" ht="15.6">
       <c r="A44" s="12"/>
       <c r="D44" s="5"/>
       <c r="E44" s="13"/>
       <c r="F44" s="4"/>
       <c r="I44" s="16"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75">
+    <row r="45" spans="1:9" ht="15.6">
       <c r="A45" s="12"/>
       <c r="D45" s="5"/>
       <c r="E45" s="13"/>
       <c r="F45" s="4"/>
       <c r="I45" s="16"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75">
+    <row r="46" spans="1:9" ht="15.6">
       <c r="A46" s="12"/>
       <c r="D46" s="5"/>
       <c r="E46" s="13"/>
       <c r="F46" s="4"/>
       <c r="I46" s="16"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75">
+    <row r="47" spans="1:9" ht="15.6">
       <c r="A47" s="12"/>
       <c r="D47" s="5"/>
       <c r="E47" s="13"/>
       <c r="F47" s="4"/>
       <c r="I47" s="16"/>
     </row>
-    <row r="50" spans="3:7" ht="15.75">
+    <row r="50" spans="3:7" ht="15.6">
       <c r="C50" s="20"/>
       <c r="D50" s="10"/>
       <c r="E50" s="11"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="3:7" ht="15.75">
+    <row r="51" spans="3:7" ht="15.6">
       <c r="C51" s="21"/>
       <c r="D51" s="13"/>
       <c r="E51" s="6"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
     </row>
-    <row r="52" spans="3:7" ht="15.75">
+    <row r="52" spans="3:7" ht="15.6">
       <c r="C52" s="21"/>
       <c r="D52" s="13"/>
       <c r="E52" s="6"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
     </row>
-    <row r="53" spans="3:7" ht="15.75">
+    <row r="53" spans="3:7" ht="15.6">
       <c r="C53" s="21"/>
       <c r="D53" s="13"/>
       <c r="E53" s="6"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
     </row>
-    <row r="54" spans="3:7" ht="15.75">
+    <row r="54" spans="3:7" ht="15.6">
       <c r="C54" s="21"/>
       <c r="D54" s="13"/>
       <c r="E54" s="6"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
     </row>
-    <row r="55" spans="3:7" ht="15.75">
+    <row r="55" spans="3:7" ht="15.6">
       <c r="C55" s="21"/>
       <c r="D55" s="13"/>
       <c r="E55" s="6"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
     </row>
-    <row r="56" spans="3:7" ht="15.75">
+    <row r="56" spans="3:7" ht="15.6">
       <c r="C56" s="21"/>
       <c r="D56" s="13"/>
       <c r="E56" s="6"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="3:7" ht="15.75">
+    <row r="57" spans="3:7" ht="15.6">
       <c r="C57" s="21"/>
       <c r="D57" s="13"/>
       <c r="E57" s="6"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
     </row>
-    <row r="58" spans="3:7" ht="15.75">
+    <row r="58" spans="3:7" ht="15.6">
       <c r="C58" s="21"/>
       <c r="D58" s="13"/>
       <c r="E58" s="8"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
     </row>
-    <row r="59" spans="3:7" ht="15.75">
+    <row r="59" spans="3:7" ht="15.6">
       <c r="C59" s="21"/>
       <c r="D59" s="13"/>
       <c r="E59" s="6"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
     </row>
-    <row r="60" spans="3:7" ht="15.75">
+    <row r="60" spans="3:7" ht="15.6">
       <c r="C60" s="21"/>
       <c r="D60" s="13"/>
       <c r="E60" s="6"/>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
     </row>
-    <row r="61" spans="3:7" ht="15.75">
+    <row r="61" spans="3:7" ht="15.6">
       <c r="C61" s="21"/>
       <c r="D61" s="13"/>
       <c r="E61" s="6"/>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
     </row>
-    <row r="62" spans="3:7" ht="15.75">
+    <row r="62" spans="3:7" ht="15.6">
       <c r="C62" s="21"/>
       <c r="D62" s="13"/>
       <c r="E62" s="6"/>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
     </row>
-    <row r="63" spans="3:7" ht="15.75">
+    <row r="63" spans="3:7" ht="15.6">
       <c r="C63" s="21"/>
       <c r="D63" s="13"/>
       <c r="E63" s="6"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
     </row>
-    <row r="64" spans="3:7" ht="15.75">
+    <row r="64" spans="3:7" ht="15.6">
       <c r="C64" s="21"/>
       <c r="D64" s="13"/>
       <c r="E64" s="6"/>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
     </row>
-    <row r="65" spans="3:7" ht="15.75">
+    <row r="65" spans="3:7" ht="15.6">
       <c r="C65" s="21"/>
       <c r="D65" s="13"/>
       <c r="E65" s="8"/>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
     </row>
-    <row r="66" spans="3:7" ht="15.75">
+    <row r="66" spans="3:7" ht="15.6">
       <c r="C66" s="21"/>
       <c r="D66" s="13"/>
       <c r="E66" s="6"/>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
     </row>
-    <row r="67" spans="3:7" ht="15.75">
+    <row r="67" spans="3:7" ht="15.6">
       <c r="C67" s="21"/>
       <c r="D67" s="13"/>
       <c r="E67" s="6"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
     </row>
-    <row r="68" spans="3:7" ht="15.75">
+    <row r="68" spans="3:7" ht="15.6">
       <c r="C68" s="20"/>
       <c r="D68" s="10"/>
       <c r="E68" s="6"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
     </row>
-    <row r="69" spans="3:7" ht="15.75">
+    <row r="69" spans="3:7" ht="15.6">
       <c r="C69" s="21"/>
       <c r="D69" s="13"/>
       <c r="E69" s="6"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
     </row>
-    <row r="70" spans="3:7" ht="15.75">
+    <row r="70" spans="3:7" ht="15.6">
       <c r="C70" s="21"/>
       <c r="D70" s="13"/>
       <c r="E70" s="6"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
     </row>
-    <row r="71" spans="3:7" ht="15.75">
+    <row r="71" spans="3:7" ht="15.6">
       <c r="C71" s="21"/>
       <c r="D71" s="13"/>
       <c r="E71" s="6"/>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
     </row>
-    <row r="72" spans="3:7" ht="15.75">
+    <row r="72" spans="3:7" ht="15.6">
       <c r="C72" s="21"/>
       <c r="D72" s="13"/>
       <c r="E72" s="6"/>
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
     </row>
-    <row r="73" spans="3:7" ht="15.75">
+    <row r="73" spans="3:7" ht="15.6">
       <c r="C73" s="21"/>
       <c r="D73" s="13"/>
       <c r="E73" s="8"/>
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
     </row>
-    <row r="74" spans="3:7" ht="15.75">
+    <row r="74" spans="3:7" ht="15.6">
       <c r="C74" s="21"/>
       <c r="D74" s="13"/>
       <c r="E74" s="8"/>
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
     </row>
-    <row r="75" spans="3:7" ht="15.75">
+    <row r="75" spans="3:7" ht="15.6">
       <c r="C75" s="21"/>
       <c r="D75" s="13"/>
       <c r="E75" s="6"/>
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
     </row>
-    <row r="76" spans="3:7" ht="15.75">
+    <row r="76" spans="3:7" ht="15.6">
       <c r="C76" s="21"/>
       <c r="D76" s="13"/>
       <c r="E76" s="6"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
     </row>
-    <row r="77" spans="3:7" ht="15.75">
+    <row r="77" spans="3:7" ht="15.6">
       <c r="C77" s="21"/>
       <c r="D77" s="13"/>
       <c r="E77" s="6"/>
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
     </row>
-    <row r="78" spans="3:7" ht="15.75">
+    <row r="78" spans="3:7" ht="15.6">
       <c r="C78" s="21"/>
       <c r="D78" s="13"/>
       <c r="E78" s="6"/>
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
     </row>
-    <row r="79" spans="3:7" ht="15.75">
+    <row r="79" spans="3:7" ht="15.6">
       <c r="C79" s="21"/>
       <c r="D79" s="13"/>
       <c r="E79" s="6"/>
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
     </row>
-    <row r="80" spans="3:7" ht="15.75">
+    <row r="80" spans="3:7" ht="15.6">
       <c r="C80" s="21"/>
       <c r="D80" s="13"/>
       <c r="E80" s="6"/>
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
     </row>
-    <row r="81" spans="3:7" ht="15.75">
+    <row r="81" spans="3:7" ht="15.6">
       <c r="C81" s="21"/>
       <c r="D81" s="13"/>
       <c r="E81" s="6"/>
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
     </row>
-    <row r="82" spans="3:7" ht="15.75">
+    <row r="82" spans="3:7" ht="15.6">
       <c r="C82" s="21"/>
       <c r="D82" s="13"/>
       <c r="E82" s="8"/>
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
     </row>
-    <row r="83" spans="3:7" ht="15.75">
+    <row r="83" spans="3:7" ht="15.6">
       <c r="C83" s="21"/>
       <c r="D83" s="13"/>
       <c r="E83" s="6"/>
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
     </row>
-    <row r="84" spans="3:7" ht="15.75">
+    <row r="84" spans="3:7" ht="15.6">
       <c r="C84" s="21"/>
       <c r="D84" s="13"/>
       <c r="E84" s="8"/>
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
     </row>
-    <row r="85" spans="3:7" ht="15.75">
+    <row r="85" spans="3:7" ht="15.6">
       <c r="C85" s="21"/>
       <c r="D85" s="13"/>
       <c r="E85" s="6"/>
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
     </row>
-    <row r="86" spans="3:7" ht="15.75">
+    <row r="86" spans="3:7" ht="15.6">
       <c r="C86" s="21"/>
       <c r="D86" s="13"/>
       <c r="E86" s="6"/>
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
     </row>
-    <row r="87" spans="3:7" ht="15.75">
+    <row r="87" spans="3:7" ht="15.6">
       <c r="C87" s="21"/>
       <c r="D87" s="13"/>
       <c r="E87" s="6"/>
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
     </row>
-    <row r="88" spans="3:7" ht="15.75">
+    <row r="88" spans="3:7" ht="15.6">
       <c r="C88" s="21"/>
       <c r="D88" s="13"/>
       <c r="E88" s="6"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="3:7" ht="15.75">
+    <row r="89" spans="3:7" ht="15.6">
       <c r="C89" s="21"/>
       <c r="D89" s="13"/>
     </row>
-    <row r="90" spans="3:7" ht="15.75">
+    <row r="90" spans="3:7" ht="15.6">
       <c r="C90" s="21"/>
       <c r="D90" s="13"/>
     </row>
-    <row r="91" spans="3:7" ht="15.75">
+    <row r="91" spans="3:7" ht="15.6">
       <c r="C91" s="21"/>
       <c r="D91" s="13"/>
     </row>
-    <row r="92" spans="3:7" ht="15.75">
+    <row r="92" spans="3:7" ht="15.6">
       <c r="C92" s="21"/>
       <c r="D92" s="13"/>
     </row>
-    <row r="93" spans="3:7" ht="15.75">
+    <row r="93" spans="3:7" ht="15.6">
       <c r="C93" s="21"/>
       <c r="D93" s="13"/>
     </row>
-    <row r="94" spans="3:7" ht="15.75">
+    <row r="94" spans="3:7" ht="15.6">
       <c r="C94" s="21"/>
       <c r="D94" s="13"/>
     </row>
-    <row r="95" spans="3:7" ht="15.75">
+    <row r="95" spans="3:7" ht="15.6">
       <c r="C95" s="21"/>
       <c r="D95" s="13"/>
     </row>
@@ -2751,17 +2812,292 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>123456789</v>
+      </c>
+      <c r="B2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="E2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="23">
+        <v>3666959560</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="H2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>123456789</v>
+      </c>
+      <c r="B3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="23">
+        <v>3666959560</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="H3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3">
+        <v>1.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="A1:K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J1" t="s">
+        <v>247</v>
+      </c>
+      <c r="K1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>12356</v>
+      </c>
+      <c r="B2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2">
+        <v>3666959560</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="H2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>456789</v>
+      </c>
+      <c r="B3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3">
+        <v>3666959560</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="H3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" t="s">
+        <v>252</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -2769,9 +3105,9 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="55.85546875" customWidth="1"/>
+    <col min="2" max="2" width="55.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2811,7 +3147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -2819,9 +3155,9 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="37.7109375" customWidth="1"/>
+    <col min="1" max="3" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2869,7 +3205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -2877,18 +3213,18 @@
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="55" style="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="19.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="1"/>
+    <col min="8" max="8" width="19.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2920,7 +3256,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="165">
+    <row r="2" spans="1:9" ht="158.4">
       <c r="A2" s="1" t="s">
         <v>58</v>
       </c>
@@ -2949,7 +3285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="180">
+    <row r="3" spans="1:9" ht="158.4">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -2978,7 +3314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="210">
+    <row r="4" spans="1:9" ht="187.2">
       <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
@@ -3007,7 +3343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="210">
+    <row r="5" spans="1:9" ht="201.6">
       <c r="A5" s="1" t="s">
         <v>73</v>
       </c>
@@ -3036,7 +3372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="120">
+    <row r="6" spans="1:9" ht="115.2">
       <c r="A6" s="1" t="s">
         <v>75</v>
       </c>
@@ -3065,7 +3401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="180">
+    <row r="7" spans="1:9" ht="158.4">
       <c r="A7" s="2" t="s">
         <v>229</v>
       </c>
@@ -3094,7 +3430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="409.5">
+    <row r="8" spans="1:9" ht="388.8">
       <c r="A8" s="2" t="s">
         <v>233</v>
       </c>
@@ -3123,7 +3459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="210">
+    <row r="9" spans="1:9" ht="187.2">
       <c r="A9" s="2" t="s">
         <v>236</v>
       </c>
@@ -3158,18 +3494,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="1" max="2" width="33.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
